--- a/JVM/JVM.xlsx
+++ b/JVM/JVM.xlsx
@@ -1,43 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,27 +383,738 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>114935</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="314325"/>
+          <a:ext cx="9753600" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>163195</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="58420" y="2438400"/>
+          <a:ext cx="7115175" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="3543300"/>
+          <a:ext cx="2495550" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="7286625"/>
+          <a:ext cx="9753600" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="11058525"/>
+          <a:ext cx="9782175" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="15982950"/>
+          <a:ext cx="9744075" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="18478500"/>
+          <a:ext cx="9886950" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="24622125"/>
+          <a:ext cx="9886950" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="27670125"/>
+          <a:ext cx="10020300" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>86995</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="239395" y="35052000"/>
+          <a:ext cx="10144125" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -111,7 +1160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +1195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +1369,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.875" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>